--- a/SCH-STH/Baseline Mapping/Angola/September 2021/ao_sch_sth_baseline_1_school_wash_202109.xlsx
+++ b/SCH-STH/Baseline Mapping/Angola/September 2021/ao_sch_sth_baseline_1_school_wash_202109.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="893">
   <si>
     <t>type</t>
   </si>
@@ -2175,12 +2175,21 @@
     <t>Samba Caju</t>
   </si>
   <si>
+    <t>Aldeia Nova</t>
+  </si>
+  <si>
     <t>Bindo</t>
   </si>
   <si>
+    <t>Cambondo</t>
+  </si>
+  <si>
     <t>Cassualaia .</t>
   </si>
   <si>
+    <t>Cassualala</t>
+  </si>
+  <si>
     <t>Cerca</t>
   </si>
   <si>
@@ -2196,7 +2205,10 @@
     <t>Massangano</t>
   </si>
   <si>
-    <t>Mauá</t>
+    <t>Massangsno</t>
+  </si>
+  <si>
+    <t>Maua</t>
   </si>
   <si>
     <t>Ndaiatan do</t>
@@ -2235,13 +2247,22 @@
     <t>Tango</t>
   </si>
   <si>
+    <t>Zenza do Itombe</t>
+  </si>
+  <si>
+    <t>Colegio N. 1S03 Samba Caju</t>
+  </si>
+  <si>
     <t>Colegio N. 808 - 4 de Janeiro</t>
   </si>
   <si>
     <t>Comiexto Escolar Manuel N, 814 Pedro Pacavira do Alto - C</t>
   </si>
   <si>
-    <t>Complexo Escolar: N'1004- Antonio Jacinto do Amaral Mar</t>
+    <t>Compexo Escolar N. 403 Al. Nova</t>
+  </si>
+  <si>
+    <t>Complexo Escolar: N.1004- Antonio Jacinto do Amaral Mar</t>
   </si>
   <si>
     <t>Complexo Escolar 28 de Agosto N. 205</t>
@@ -2250,24 +2271,39 @@
     <t>Complexo Escolar Cacolomboio N. 1006</t>
   </si>
   <si>
+    <t>Complexo Escolar Dom Bosco N.38</t>
+  </si>
+  <si>
     <t>Complexo escolar Missionario St. A, Kahenda N. 1805</t>
   </si>
   <si>
     <t>Complexo Escolar N.1017 - Caleba</t>
   </si>
   <si>
+    <t>Complexo Escolar N.14 Posse</t>
+  </si>
+  <si>
     <t>Complexo Escolar N.36 Paulo Teixeira Jorge</t>
   </si>
   <si>
     <t>Complexo Escolar N.7 Hoji - Ya - Henda</t>
   </si>
   <si>
-    <t>Complexo Escolar N. 15 Evaristo Domingos Kimba</t>
+    <t>Complexo Escolar N. 1015 Cambondo</t>
+  </si>
+  <si>
+    <t>Complexo Escolar N. 1203 - Comandante Sekouture</t>
   </si>
   <si>
     <t>Complexo Escolar N. 216 - Tango - Sede</t>
   </si>
   <si>
+    <t>Complexo Escolar N. 218 - Maua - Sede</t>
+  </si>
+  <si>
+    <t>Complexo Escolar N. 34 Deolinda Rodrigues</t>
+  </si>
+  <si>
     <t>Complexo Escolar N. 3 Metodista Unida</t>
   </si>
   <si>
@@ -2277,19 +2313,31 @@
     <t>Complexo Escolar N. 811 Comandante Stona Alto - Dondo</t>
   </si>
   <si>
+    <t>Complexo Escolar N. 812 Soba GInbongo Alto - Dondo</t>
+  </si>
+  <si>
     <t>Complexo Escolar N. 820 Comandante SarabI</t>
   </si>
   <si>
+    <t>Complexo Escolar N. 821 Joao Cardoso Jordao</t>
+  </si>
+  <si>
     <t>Complexo Escolar N. 830 Mucozo</t>
   </si>
   <si>
-    <t>Complexo Escolar N 20 Augusto Ngangula</t>
+    <t>Complexo Escolar N 16 Catome de Baixo</t>
+  </si>
+  <si>
+    <t>Complexo Escolar N 23 - Km13 - Zanga</t>
   </si>
   <si>
     <t>Complexo Escolar N 24 Kirima Hola - Zanga</t>
   </si>
   <si>
-    <t>Escola para nomear</t>
+    <t>Esc. Prlmer. Missionaria Santo Hilarlao N. 1009</t>
+  </si>
+  <si>
+    <t>Escolar do Ensino Primario N, 1008 B - Beta</t>
   </si>
   <si>
     <t>Escola do Ensino Primario N. 818 Ngola Yetu</t>
@@ -2298,12 +2346,21 @@
     <t>Escola do Ensino Primario Quiaposse N. 1005</t>
   </si>
   <si>
+    <t>Escola do ensino Primario Santa Maria N, 1014</t>
+  </si>
+  <si>
     <t>Escola Primaria 827 km 34 Nova Cassoalala</t>
   </si>
   <si>
+    <t>Escola Primaria 837 Nova Cassoalala - Massangano</t>
+  </si>
+  <si>
     <t>Escola Primaria N, 12 Vista</t>
   </si>
   <si>
+    <t>Escola Primaria N, 1603 - Dundo Ya Mutulo I</t>
+  </si>
+  <si>
     <t>Escola Primaria N, 1607 Pambas</t>
   </si>
   <si>
@@ -2313,6 +2370,9 @@
     <t>Escola Primaria N. 1601 - Ngola Nhl - Nlii</t>
   </si>
   <si>
+    <t>Escola Primaria N. 1602 - Imbondeiros</t>
+  </si>
+  <si>
     <t>Escola Primaria N. 1605 - Maquela</t>
   </si>
   <si>
@@ -2325,34 +2385,55 @@
     <t>Escola Primaria N. 1807 - Ngolome</t>
   </si>
   <si>
+    <t>Escola Primaria N. 1808 - Zamba</t>
+  </si>
+  <si>
     <t>Escola Primaria N. 1815 - K. Kasseno</t>
   </si>
   <si>
     <t>Escola Primaria N. 1817 - Calaiala</t>
   </si>
   <si>
-    <t>Escola Primaria N. 213 - Bairro Povo Longe (KN01)</t>
-  </si>
-  <si>
-    <t>Escola Primaria N. 213 - Bairro Povo Longe (KN02)</t>
-  </si>
-  <si>
-    <t>Escola Primaria N. 216 - Bairro Kanaltanjungo (KN03)</t>
+    <t>Escola Primaria N. 213 - Bairro Povo Longe (KN05)</t>
+  </si>
+  <si>
+    <t>Escola Primaria N. 213 - Bairro Povo Longe (KN07)</t>
+  </si>
+  <si>
+    <t>Escola Primaria N. 214 - Bairro Bindo</t>
+  </si>
+  <si>
+    <t>Escola Primaria N. 216 - Bairro Kanaltanjungo (KN01)</t>
   </si>
   <si>
     <t>Escola Primaria N. 216 - Bairro Kanaltanjungo (KN04)</t>
   </si>
   <si>
-    <t>Escola Primaria N. 221 - Bairro Kangulungo</t>
+    <t>Escola Primaria N. 221 - Bairro Kangulungo (KN02)</t>
+  </si>
+  <si>
+    <t>Escola Primaria N. 221 - Bairro Kangulungo (KNX51)</t>
+  </si>
+  <si>
+    <t>Escola Primaria N. 228 - Bairro Zage</t>
   </si>
   <si>
     <t>Escola Primaria N. 238 - Bairro Kimaco</t>
   </si>
   <si>
+    <t>Escola Primaria N. 608 - Cahombo</t>
+  </si>
+  <si>
     <t>Escola Primaria N. 609 - Pimbi</t>
   </si>
   <si>
-    <t>Escola Prinnaria N. 5 Jose Maria Ferraz dos Santos</t>
+    <t>Escola Primaria N. 835 - Zenza - do - Itombe</t>
+  </si>
+  <si>
+    <t>Escola Primaria N 19 Kitata</t>
+  </si>
+  <si>
+    <t>Escola Prinnaria N. 5 Jose María Ferraz dos Santos</t>
   </si>
   <si>
     <t>Escota de Magisterio N. 29 Comandante Benedito - Ndalata</t>
@@ -2361,10 +2442,13 @@
     <t>Escota Primaria N. 237 - Bairro Bejs</t>
   </si>
   <si>
-    <t>Maua</t>
-  </si>
-  <si>
-    <t>Liceu de Cambamba N. 809 Andre Pass! Caçasse zona -1</t>
+    <t>Instituto Politecnico N. 1 - Dom Anastaclo Cahangode</t>
+  </si>
+  <si>
+    <t>Instituto Politecnico N. 807 Chico Mendellev - Cambambe</t>
+  </si>
+  <si>
+    <t>Liceu de Cambamba N. 809 Andre Pass Caçasse zona -1</t>
   </si>
   <si>
     <t>Liceu N. 35 Dr. Antonio Agostinho Neto - Sassa</t>
@@ -2379,7 +2463,7 @@
     <t>Magisterio do Luinga N. 202</t>
   </si>
   <si>
-    <t>Magisterio N. 802 Mauricio Domingos - Dondo</t>
+    <t>Magisterio N. 802 Maurício Domingos - Dondo</t>
   </si>
   <si>
     <t>code_school</t>
@@ -2527,6 +2611,78 @@
   </si>
   <si>
     <t>KN48</t>
+  </si>
+  <si>
+    <t>KNX49</t>
+  </si>
+  <si>
+    <t>KNX50</t>
+  </si>
+  <si>
+    <t>KNX51</t>
+  </si>
+  <si>
+    <t>KNX52</t>
+  </si>
+  <si>
+    <t>KNX53</t>
+  </si>
+  <si>
+    <t>KNX54</t>
+  </si>
+  <si>
+    <t>KNX55</t>
+  </si>
+  <si>
+    <t>KNX56</t>
+  </si>
+  <si>
+    <t>KNX57</t>
+  </si>
+  <si>
+    <t>KNX58</t>
+  </si>
+  <si>
+    <t>KNX59</t>
+  </si>
+  <si>
+    <t>KNX60</t>
+  </si>
+  <si>
+    <t>KNX61</t>
+  </si>
+  <si>
+    <t>KNX62</t>
+  </si>
+  <si>
+    <t>KNX63</t>
+  </si>
+  <si>
+    <t>KNX64</t>
+  </si>
+  <si>
+    <t>KNX65</t>
+  </si>
+  <si>
+    <t>KNX66</t>
+  </si>
+  <si>
+    <t>KNX67</t>
+  </si>
+  <si>
+    <t>KNX68</t>
+  </si>
+  <si>
+    <t>KNX69</t>
+  </si>
+  <si>
+    <t>KNX70</t>
+  </si>
+  <si>
+    <t>KNX71</t>
+  </si>
+  <si>
+    <t>KNX72</t>
   </si>
   <si>
     <t>form_title</t>
@@ -2555,12 +2711,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2627,26 +2783,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2658,7 +2815,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2666,9 +2823,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2687,16 +2852,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2717,17 +2875,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2740,26 +2897,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2778,13 +2927,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2796,7 +2951,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2808,13 +2969,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2826,37 +2987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2874,7 +3005,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2886,7 +3035,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2898,25 +3059,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2934,31 +3083,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3007,32 +3156,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3052,13 +3180,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3089,154 +3221,171 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5399,17 +5548,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I306"/>
+  <dimension ref="A1:I359"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I259" sqref="I259:I306"/>
+      <selection pane="bottomLeft" activeCell="I288" sqref="I288:I359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1166666666667" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="19.2916666666667" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
     <col min="4" max="4" width="31.2916666666667" customWidth="1"/>
@@ -7794,16 +7943,16 @@
         <v>348</v>
       </c>
       <c r="B188" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="C188" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="D188" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="E188" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="G188" t="s">
         <v>708</v>
@@ -7814,19 +7963,19 @@
         <v>348</v>
       </c>
       <c r="B189" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="C189" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="D189" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="E189" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="G189" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -7846,7 +7995,7 @@
         <v>717</v>
       </c>
       <c r="G190" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -7906,7 +8055,7 @@
         <v>720</v>
       </c>
       <c r="G193" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -7926,7 +8075,7 @@
         <v>721</v>
       </c>
       <c r="G194" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -7966,7 +8115,7 @@
         <v>723</v>
       </c>
       <c r="G196" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -7986,7 +8135,7 @@
         <v>724</v>
       </c>
       <c r="G197" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -8006,7 +8155,7 @@
         <v>725</v>
       </c>
       <c r="G198" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -8026,7 +8175,7 @@
         <v>726</v>
       </c>
       <c r="G199" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -8046,7 +8195,7 @@
         <v>727</v>
       </c>
       <c r="G200" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -8066,7 +8215,7 @@
         <v>728</v>
       </c>
       <c r="G201" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -8086,7 +8235,7 @@
         <v>729</v>
       </c>
       <c r="G202" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -8106,7 +8255,7 @@
         <v>730</v>
       </c>
       <c r="G203" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -8126,7 +8275,7 @@
         <v>731</v>
       </c>
       <c r="G204" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -8146,7 +8295,7 @@
         <v>732</v>
       </c>
       <c r="G205" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -8166,7 +8315,7 @@
         <v>733</v>
       </c>
       <c r="G206" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -8186,7 +8335,7 @@
         <v>734</v>
       </c>
       <c r="G207" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -8206,122 +8355,107 @@
         <v>735</v>
       </c>
       <c r="G208" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" t="s">
+        <v>348</v>
+      </c>
+      <c r="B209" t="s">
+        <v>736</v>
+      </c>
+      <c r="C209" t="s">
+        <v>736</v>
+      </c>
+      <c r="D209" t="s">
+        <v>736</v>
+      </c>
+      <c r="E209" t="s">
+        <v>736</v>
+      </c>
+      <c r="G209" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" t="s">
+        <v>348</v>
+      </c>
+      <c r="B210" t="s">
+        <v>737</v>
+      </c>
+      <c r="C210" t="s">
+        <v>737</v>
+      </c>
+      <c r="D210" t="s">
+        <v>737</v>
+      </c>
+      <c r="E210" t="s">
+        <v>737</v>
+      </c>
+      <c r="G210" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
+        <v>348</v>
+      </c>
+      <c r="B211" t="s">
+        <v>738</v>
+      </c>
+      <c r="C211" t="s">
+        <v>738</v>
+      </c>
+      <c r="D211" t="s">
+        <v>738</v>
+      </c>
+      <c r="E211" t="s">
+        <v>738</v>
+      </c>
+      <c r="G211" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>348</v>
+      </c>
+      <c r="B212" t="s">
+        <v>739</v>
+      </c>
+      <c r="C212" t="s">
+        <v>739</v>
+      </c>
+      <c r="D212" t="s">
+        <v>739</v>
+      </c>
+      <c r="E212" t="s">
+        <v>739</v>
+      </c>
+      <c r="G212" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
-      <c r="A210" t="s">
-        <v>349</v>
-      </c>
-      <c r="B210" t="s">
-        <v>736</v>
-      </c>
-      <c r="C210" t="s">
-        <v>736</v>
-      </c>
-      <c r="D210" t="s">
-        <v>736</v>
-      </c>
-      <c r="E210" t="s">
-        <v>736</v>
-      </c>
-      <c r="G210" t="s">
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>348</v>
+      </c>
+      <c r="B213" t="s">
+        <v>740</v>
+      </c>
+      <c r="C213" t="s">
+        <v>740</v>
+      </c>
+      <c r="D213" t="s">
+        <v>740</v>
+      </c>
+      <c r="E213" t="s">
+        <v>740</v>
+      </c>
+      <c r="G213" t="s">
         <v>710</v>
-      </c>
-      <c r="H210" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="A211" t="s">
-        <v>349</v>
-      </c>
-      <c r="B211" t="s">
-        <v>737</v>
-      </c>
-      <c r="C211" t="s">
-        <v>737</v>
-      </c>
-      <c r="D211" t="s">
-        <v>737</v>
-      </c>
-      <c r="E211" t="s">
-        <v>737</v>
-      </c>
-      <c r="G211" t="s">
-        <v>710</v>
-      </c>
-      <c r="H211" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="A212" t="s">
-        <v>349</v>
-      </c>
-      <c r="B212" t="s">
-        <v>738</v>
-      </c>
-      <c r="C212" t="s">
-        <v>738</v>
-      </c>
-      <c r="D212" t="s">
-        <v>738</v>
-      </c>
-      <c r="E212" t="s">
-        <v>738</v>
-      </c>
-      <c r="G212" t="s">
-        <v>712</v>
-      </c>
-      <c r="H212" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
-      <c r="A213" t="s">
-        <v>349</v>
-      </c>
-      <c r="B213" t="s">
-        <v>739</v>
-      </c>
-      <c r="C213" t="s">
-        <v>739</v>
-      </c>
-      <c r="D213" t="s">
-        <v>739</v>
-      </c>
-      <c r="E213" t="s">
-        <v>739</v>
-      </c>
-      <c r="G213" t="s">
-        <v>707</v>
-      </c>
-      <c r="H213" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
-      <c r="A214" t="s">
-        <v>349</v>
-      </c>
-      <c r="B214" t="s">
-        <v>740</v>
-      </c>
-      <c r="C214" t="s">
-        <v>740</v>
-      </c>
-      <c r="D214" t="s">
-        <v>740</v>
-      </c>
-      <c r="E214" t="s">
-        <v>740</v>
-      </c>
-      <c r="G214" t="s">
-        <v>712</v>
-      </c>
-      <c r="H214" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8344,7 +8478,7 @@
         <v>715</v>
       </c>
       <c r="H215" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8364,10 +8498,10 @@
         <v>742</v>
       </c>
       <c r="G216" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H216" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8387,10 +8521,10 @@
         <v>743</v>
       </c>
       <c r="G217" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H217" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8410,10 +8544,10 @@
         <v>744</v>
       </c>
       <c r="G218" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="H218" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8433,10 +8567,10 @@
         <v>745</v>
       </c>
       <c r="G219" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H219" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8459,7 +8593,7 @@
         <v>707</v>
       </c>
       <c r="H220" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8479,10 +8613,10 @@
         <v>747</v>
       </c>
       <c r="G221" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H221" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8502,10 +8636,10 @@
         <v>748</v>
       </c>
       <c r="G222" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H222" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8525,10 +8659,10 @@
         <v>749</v>
       </c>
       <c r="G223" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="H223" t="s">
-        <v>719</v>
+        <v>738</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8548,10 +8682,10 @@
         <v>750</v>
       </c>
       <c r="G224" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H224" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8571,10 +8705,10 @@
         <v>751</v>
       </c>
       <c r="G225" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H225" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8597,7 +8731,7 @@
         <v>711</v>
       </c>
       <c r="H226" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8620,7 +8754,7 @@
         <v>711</v>
       </c>
       <c r="H227" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8643,7 +8777,7 @@
         <v>712</v>
       </c>
       <c r="H228" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8663,10 +8797,10 @@
         <v>755</v>
       </c>
       <c r="G229" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="H229" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8686,10 +8820,10 @@
         <v>756</v>
       </c>
       <c r="G230" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="H230" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8709,10 +8843,10 @@
         <v>757</v>
       </c>
       <c r="G231" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="H231" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8735,7 +8869,7 @@
         <v>711</v>
       </c>
       <c r="H232" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8755,10 +8889,10 @@
         <v>759</v>
       </c>
       <c r="G233" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H233" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8778,10 +8912,10 @@
         <v>760</v>
       </c>
       <c r="G234" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="H234" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8801,10 +8935,10 @@
         <v>761</v>
       </c>
       <c r="G235" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="H235" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8824,10 +8958,10 @@
         <v>762</v>
       </c>
       <c r="G236" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="H236" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8847,10 +8981,10 @@
         <v>763</v>
       </c>
       <c r="G237" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="H237" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8870,10 +9004,10 @@
         <v>764</v>
       </c>
       <c r="G238" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="H238" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8893,10 +9027,10 @@
         <v>765</v>
       </c>
       <c r="G239" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="H239" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8916,10 +9050,10 @@
         <v>766</v>
       </c>
       <c r="G240" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H240" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8939,10 +9073,10 @@
         <v>767</v>
       </c>
       <c r="G241" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H241" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8962,10 +9096,10 @@
         <v>768</v>
       </c>
       <c r="G242" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="H242" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8985,7 +9119,7 @@
         <v>769</v>
       </c>
       <c r="G243" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="H243" t="s">
         <v>735</v>
@@ -9008,10 +9142,10 @@
         <v>770</v>
       </c>
       <c r="G244" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="H244" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -9031,10 +9165,10 @@
         <v>771</v>
       </c>
       <c r="G245" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="H245" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9054,10 +9188,10 @@
         <v>772</v>
       </c>
       <c r="G246" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="H246" t="s">
-        <v>716</v>
+        <v>735</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -9077,10 +9211,10 @@
         <v>773</v>
       </c>
       <c r="G247" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="H247" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -9100,10 +9234,10 @@
         <v>774</v>
       </c>
       <c r="G248" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H248" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9123,10 +9257,10 @@
         <v>775</v>
       </c>
       <c r="G249" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H249" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9149,7 +9283,7 @@
         <v>711</v>
       </c>
       <c r="H250" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9169,10 +9303,10 @@
         <v>777</v>
       </c>
       <c r="G251" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="H251" t="s">
-        <v>778</v>
+        <v>736</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9180,22 +9314,22 @@
         <v>349</v>
       </c>
       <c r="B252" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C252" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D252" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E252" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G252" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="H252" t="s">
-        <v>719</v>
+        <v>736</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9203,22 +9337,22 @@
         <v>349</v>
       </c>
       <c r="B253" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C253" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D253" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E253" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G253" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="H253" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9226,22 +9360,22 @@
         <v>349</v>
       </c>
       <c r="B254" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C254" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D254" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E254" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G254" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="H254" t="s">
-        <v>708</v>
+        <v>736</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9249,22 +9383,22 @@
         <v>349</v>
       </c>
       <c r="B255" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C255" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D255" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E255" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G255" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="H255" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9272,22 +9406,22 @@
         <v>349</v>
       </c>
       <c r="B256" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C256" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D256" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E256" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G256" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="H256" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9295,959 +9429,1046 @@
         <v>349</v>
       </c>
       <c r="B257" t="s">
+        <v>783</v>
+      </c>
+      <c r="C257" t="s">
+        <v>783</v>
+      </c>
+      <c r="D257" t="s">
+        <v>783</v>
+      </c>
+      <c r="E257" t="s">
+        <v>783</v>
+      </c>
+      <c r="G257" t="s">
+        <v>713</v>
+      </c>
+      <c r="H257" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" t="s">
+        <v>349</v>
+      </c>
+      <c r="B258" t="s">
         <v>784</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C258" t="s">
         <v>784</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D258" t="s">
         <v>784</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E258" t="s">
         <v>784</v>
       </c>
-      <c r="G257" t="s">
+      <c r="G258" t="s">
+        <v>715</v>
+      </c>
+      <c r="H258" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" t="s">
+        <v>349</v>
+      </c>
+      <c r="B259" t="s">
+        <v>785</v>
+      </c>
+      <c r="C259" t="s">
+        <v>785</v>
+      </c>
+      <c r="D259" t="s">
+        <v>785</v>
+      </c>
+      <c r="E259" t="s">
+        <v>785</v>
+      </c>
+      <c r="G259" t="s">
+        <v>715</v>
+      </c>
+      <c r="H259" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" t="s">
+        <v>349</v>
+      </c>
+      <c r="B260" t="s">
+        <v>786</v>
+      </c>
+      <c r="C260" t="s">
+        <v>786</v>
+      </c>
+      <c r="D260" t="s">
+        <v>786</v>
+      </c>
+      <c r="E260" t="s">
+        <v>786</v>
+      </c>
+      <c r="G260" t="s">
+        <v>715</v>
+      </c>
+      <c r="H260" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" t="s">
+        <v>349</v>
+      </c>
+      <c r="B261" t="s">
+        <v>787</v>
+      </c>
+      <c r="C261" t="s">
+        <v>787</v>
+      </c>
+      <c r="D261" t="s">
+        <v>787</v>
+      </c>
+      <c r="E261" t="s">
+        <v>787</v>
+      </c>
+      <c r="G261" t="s">
+        <v>715</v>
+      </c>
+      <c r="H261" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" t="s">
+        <v>349</v>
+      </c>
+      <c r="B262" t="s">
+        <v>788</v>
+      </c>
+      <c r="C262" t="s">
+        <v>788</v>
+      </c>
+      <c r="D262" t="s">
+        <v>788</v>
+      </c>
+      <c r="E262" t="s">
+        <v>788</v>
+      </c>
+      <c r="G262" t="s">
+        <v>715</v>
+      </c>
+      <c r="H262" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" t="s">
+        <v>349</v>
+      </c>
+      <c r="B263" t="s">
+        <v>789</v>
+      </c>
+      <c r="C263" t="s">
+        <v>789</v>
+      </c>
+      <c r="D263" t="s">
+        <v>789</v>
+      </c>
+      <c r="E263" t="s">
+        <v>789</v>
+      </c>
+      <c r="G263" t="s">
+        <v>707</v>
+      </c>
+      <c r="H263" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" t="s">
+        <v>349</v>
+      </c>
+      <c r="B264" t="s">
+        <v>790</v>
+      </c>
+      <c r="C264" t="s">
+        <v>790</v>
+      </c>
+      <c r="D264" t="s">
+        <v>790</v>
+      </c>
+      <c r="E264" t="s">
+        <v>790</v>
+      </c>
+      <c r="G264" t="s">
+        <v>707</v>
+      </c>
+      <c r="H264" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" t="s">
+        <v>349</v>
+      </c>
+      <c r="B265" t="s">
+        <v>791</v>
+      </c>
+      <c r="C265" t="s">
+        <v>791</v>
+      </c>
+      <c r="D265" t="s">
+        <v>791</v>
+      </c>
+      <c r="E265" t="s">
+        <v>791</v>
+      </c>
+      <c r="G265" t="s">
+        <v>707</v>
+      </c>
+      <c r="H265" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" t="s">
+        <v>349</v>
+      </c>
+      <c r="B266" t="s">
+        <v>792</v>
+      </c>
+      <c r="C266" t="s">
+        <v>792</v>
+      </c>
+      <c r="D266" t="s">
+        <v>792</v>
+      </c>
+      <c r="E266" t="s">
+        <v>792</v>
+      </c>
+      <c r="G266" t="s">
+        <v>707</v>
+      </c>
+      <c r="H266" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" t="s">
+        <v>349</v>
+      </c>
+      <c r="B267" t="s">
+        <v>793</v>
+      </c>
+      <c r="C267" t="s">
+        <v>793</v>
+      </c>
+      <c r="D267" t="s">
+        <v>793</v>
+      </c>
+      <c r="E267" t="s">
+        <v>793</v>
+      </c>
+      <c r="G267" t="s">
+        <v>707</v>
+      </c>
+      <c r="H267" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" t="s">
+        <v>349</v>
+      </c>
+      <c r="B268" t="s">
+        <v>794</v>
+      </c>
+      <c r="C268" t="s">
+        <v>794</v>
+      </c>
+      <c r="D268" t="s">
+        <v>794</v>
+      </c>
+      <c r="E268" t="s">
+        <v>794</v>
+      </c>
+      <c r="G268" t="s">
+        <v>707</v>
+      </c>
+      <c r="H268" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" t="s">
+        <v>349</v>
+      </c>
+      <c r="B269" t="s">
+        <v>795</v>
+      </c>
+      <c r="C269" t="s">
+        <v>795</v>
+      </c>
+      <c r="D269" t="s">
+        <v>795</v>
+      </c>
+      <c r="E269" t="s">
+        <v>795</v>
+      </c>
+      <c r="G269" t="s">
+        <v>707</v>
+      </c>
+      <c r="H269" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" t="s">
+        <v>349</v>
+      </c>
+      <c r="B270" t="s">
+        <v>796</v>
+      </c>
+      <c r="C270" t="s">
+        <v>796</v>
+      </c>
+      <c r="D270" t="s">
+        <v>796</v>
+      </c>
+      <c r="E270" t="s">
+        <v>796</v>
+      </c>
+      <c r="G270" t="s">
+        <v>707</v>
+      </c>
+      <c r="H270" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" t="s">
+        <v>349</v>
+      </c>
+      <c r="B271" t="s">
+        <v>797</v>
+      </c>
+      <c r="C271" t="s">
+        <v>797</v>
+      </c>
+      <c r="D271" t="s">
+        <v>797</v>
+      </c>
+      <c r="E271" t="s">
+        <v>797</v>
+      </c>
+      <c r="G271" t="s">
+        <v>707</v>
+      </c>
+      <c r="H271" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" t="s">
+        <v>349</v>
+      </c>
+      <c r="B272" t="s">
+        <v>798</v>
+      </c>
+      <c r="C272" t="s">
+        <v>798</v>
+      </c>
+      <c r="D272" t="s">
+        <v>798</v>
+      </c>
+      <c r="E272" t="s">
+        <v>798</v>
+      </c>
+      <c r="G272" t="s">
+        <v>709</v>
+      </c>
+      <c r="H272" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" t="s">
+        <v>349</v>
+      </c>
+      <c r="B273" t="s">
+        <v>799</v>
+      </c>
+      <c r="C273" t="s">
+        <v>799</v>
+      </c>
+      <c r="D273" t="s">
+        <v>799</v>
+      </c>
+      <c r="E273" t="s">
+        <v>799</v>
+      </c>
+      <c r="G273" t="s">
+        <v>709</v>
+      </c>
+      <c r="H273" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" t="s">
+        <v>349</v>
+      </c>
+      <c r="B274" t="s">
+        <v>800</v>
+      </c>
+      <c r="C274" t="s">
+        <v>800</v>
+      </c>
+      <c r="D274" t="s">
+        <v>800</v>
+      </c>
+      <c r="E274" t="s">
+        <v>800</v>
+      </c>
+      <c r="G274" t="s">
         <v>710</v>
       </c>
-      <c r="H257" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9">
-      <c r="A259" t="s">
-        <v>785</v>
-      </c>
-      <c r="B259" t="s">
-        <v>786</v>
-      </c>
-      <c r="C259" t="s">
-        <v>786</v>
-      </c>
-      <c r="D259" t="s">
-        <v>786</v>
-      </c>
-      <c r="E259" t="s">
-        <v>786</v>
-      </c>
-      <c r="I259" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9">
-      <c r="A260" t="s">
-        <v>785</v>
-      </c>
-      <c r="B260" t="s">
-        <v>787</v>
-      </c>
-      <c r="C260" t="s">
-        <v>787</v>
-      </c>
-      <c r="D260" t="s">
-        <v>787</v>
-      </c>
-      <c r="E260" t="s">
-        <v>787</v>
-      </c>
-      <c r="I260" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9">
-      <c r="A261" t="s">
-        <v>785</v>
-      </c>
-      <c r="B261" t="s">
-        <v>788</v>
-      </c>
-      <c r="C261" t="s">
-        <v>788</v>
-      </c>
-      <c r="D261" t="s">
-        <v>788</v>
-      </c>
-      <c r="E261" t="s">
-        <v>788</v>
-      </c>
-      <c r="I261" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9">
-      <c r="A262" t="s">
-        <v>785</v>
-      </c>
-      <c r="B262" t="s">
-        <v>789</v>
-      </c>
-      <c r="C262" t="s">
-        <v>789</v>
-      </c>
-      <c r="D262" t="s">
-        <v>789</v>
-      </c>
-      <c r="E262" t="s">
-        <v>789</v>
-      </c>
-      <c r="I262" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9">
-      <c r="A263" t="s">
-        <v>785</v>
-      </c>
-      <c r="B263" t="s">
-        <v>790</v>
-      </c>
-      <c r="C263" t="s">
-        <v>790</v>
-      </c>
-      <c r="D263" t="s">
-        <v>790</v>
-      </c>
-      <c r="E263" t="s">
-        <v>790</v>
-      </c>
-      <c r="I263" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9">
-      <c r="A264" t="s">
-        <v>785</v>
-      </c>
-      <c r="B264" t="s">
-        <v>791</v>
-      </c>
-      <c r="C264" t="s">
-        <v>791</v>
-      </c>
-      <c r="D264" t="s">
-        <v>791</v>
-      </c>
-      <c r="E264" t="s">
-        <v>791</v>
-      </c>
-      <c r="I264" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9">
-      <c r="A265" t="s">
-        <v>785</v>
-      </c>
-      <c r="B265" t="s">
-        <v>792</v>
-      </c>
-      <c r="C265" t="s">
-        <v>792</v>
-      </c>
-      <c r="D265" t="s">
-        <v>792</v>
-      </c>
-      <c r="E265" t="s">
-        <v>792</v>
-      </c>
-      <c r="I265" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9">
-      <c r="A266" t="s">
-        <v>785</v>
-      </c>
-      <c r="B266" t="s">
-        <v>793</v>
-      </c>
-      <c r="C266" t="s">
-        <v>793</v>
-      </c>
-      <c r="D266" t="s">
-        <v>793</v>
-      </c>
-      <c r="E266" t="s">
-        <v>793</v>
-      </c>
-      <c r="I266" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9">
-      <c r="A267" t="s">
-        <v>785</v>
-      </c>
-      <c r="B267" t="s">
-        <v>794</v>
-      </c>
-      <c r="C267" t="s">
-        <v>794</v>
-      </c>
-      <c r="D267" t="s">
-        <v>794</v>
-      </c>
-      <c r="E267" t="s">
-        <v>794</v>
-      </c>
-      <c r="I267" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9">
-      <c r="A268" t="s">
-        <v>785</v>
-      </c>
-      <c r="B268" t="s">
-        <v>795</v>
-      </c>
-      <c r="C268" t="s">
-        <v>795</v>
-      </c>
-      <c r="D268" t="s">
-        <v>795</v>
-      </c>
-      <c r="E268" t="s">
-        <v>795</v>
-      </c>
-      <c r="I268" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9">
-      <c r="A269" t="s">
-        <v>785</v>
-      </c>
-      <c r="B269" t="s">
-        <v>796</v>
-      </c>
-      <c r="C269" t="s">
-        <v>796</v>
-      </c>
-      <c r="D269" t="s">
-        <v>796</v>
-      </c>
-      <c r="E269" t="s">
-        <v>796</v>
-      </c>
-      <c r="I269" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9">
-      <c r="A270" t="s">
-        <v>785</v>
-      </c>
-      <c r="B270" t="s">
-        <v>797</v>
-      </c>
-      <c r="C270" t="s">
-        <v>797</v>
-      </c>
-      <c r="D270" t="s">
-        <v>797</v>
-      </c>
-      <c r="E270" t="s">
-        <v>797</v>
-      </c>
-      <c r="I270" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9">
-      <c r="A271" t="s">
-        <v>785</v>
-      </c>
-      <c r="B271" t="s">
-        <v>798</v>
-      </c>
-      <c r="C271" t="s">
-        <v>798</v>
-      </c>
-      <c r="D271" t="s">
-        <v>798</v>
-      </c>
-      <c r="E271" t="s">
-        <v>798</v>
-      </c>
-      <c r="I271" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9">
-      <c r="A272" t="s">
-        <v>785</v>
-      </c>
-      <c r="B272" t="s">
-        <v>799</v>
-      </c>
-      <c r="C272" t="s">
-        <v>799</v>
-      </c>
-      <c r="D272" t="s">
-        <v>799</v>
-      </c>
-      <c r="E272" t="s">
-        <v>799</v>
-      </c>
-      <c r="I272" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9">
-      <c r="A273" t="s">
-        <v>785</v>
-      </c>
-      <c r="B273" t="s">
-        <v>800</v>
-      </c>
-      <c r="C273" t="s">
-        <v>800</v>
-      </c>
-      <c r="D273" t="s">
-        <v>800</v>
-      </c>
-      <c r="E273" t="s">
-        <v>800</v>
-      </c>
-      <c r="I273" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9">
-      <c r="A274" t="s">
-        <v>785</v>
-      </c>
-      <c r="B274" t="s">
+      <c r="H274" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" t="s">
+        <v>349</v>
+      </c>
+      <c r="B275" t="s">
         <v>801</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C275" t="s">
         <v>801</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D275" t="s">
         <v>801</v>
       </c>
-      <c r="E274" t="s">
+      <c r="E275" t="s">
         <v>801</v>
       </c>
-      <c r="I274" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9">
-      <c r="A275" t="s">
-        <v>785</v>
-      </c>
-      <c r="B275" t="s">
+      <c r="G275" t="s">
+        <v>711</v>
+      </c>
+      <c r="H275" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" t="s">
+        <v>349</v>
+      </c>
+      <c r="B276" t="s">
         <v>802</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C276" t="s">
         <v>802</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D276" t="s">
         <v>802</v>
       </c>
-      <c r="E275" t="s">
+      <c r="E276" t="s">
         <v>802</v>
       </c>
-      <c r="I275" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9">
-      <c r="A276" t="s">
-        <v>785</v>
-      </c>
-      <c r="B276" t="s">
+      <c r="G276" t="s">
+        <v>711</v>
+      </c>
+      <c r="H276" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" t="s">
+        <v>349</v>
+      </c>
+      <c r="B277" t="s">
         <v>803</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C277" t="s">
         <v>803</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D277" t="s">
         <v>803</v>
       </c>
-      <c r="E276" t="s">
+      <c r="E277" t="s">
         <v>803</v>
       </c>
-      <c r="I276" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9">
-      <c r="A277" t="s">
-        <v>785</v>
-      </c>
-      <c r="B277" t="s">
+      <c r="G277" t="s">
+        <v>711</v>
+      </c>
+      <c r="H277" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" t="s">
+        <v>349</v>
+      </c>
+      <c r="B278" t="s">
         <v>804</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C278" t="s">
         <v>804</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D278" t="s">
         <v>804</v>
       </c>
-      <c r="E277" t="s">
+      <c r="E278" t="s">
         <v>804</v>
       </c>
-      <c r="I277" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9">
-      <c r="A278" t="s">
-        <v>785</v>
-      </c>
-      <c r="B278" t="s">
+      <c r="G278" t="s">
+        <v>707</v>
+      </c>
+      <c r="H278" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" t="s">
+        <v>349</v>
+      </c>
+      <c r="B279" t="s">
         <v>805</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C279" t="s">
         <v>805</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D279" t="s">
         <v>805</v>
       </c>
-      <c r="E278" t="s">
+      <c r="E279" t="s">
         <v>805</v>
       </c>
-      <c r="I278" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9">
-      <c r="A279" t="s">
-        <v>785</v>
-      </c>
-      <c r="B279" t="s">
+      <c r="G279" t="s">
+        <v>707</v>
+      </c>
+      <c r="H279" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" t="s">
+        <v>349</v>
+      </c>
+      <c r="B280" t="s">
         <v>806</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C280" t="s">
         <v>806</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D280" t="s">
         <v>806</v>
       </c>
-      <c r="E279" t="s">
+      <c r="E280" t="s">
         <v>806</v>
       </c>
-      <c r="I279" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9">
-      <c r="A280" t="s">
-        <v>785</v>
-      </c>
-      <c r="B280" t="s">
+      <c r="G280" t="s">
+        <v>710</v>
+      </c>
+      <c r="H280" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" t="s">
+        <v>349</v>
+      </c>
+      <c r="B281" t="s">
         <v>807</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C281" t="s">
         <v>807</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D281" t="s">
         <v>807</v>
       </c>
-      <c r="E280" t="s">
+      <c r="E281" t="s">
         <v>807</v>
       </c>
-      <c r="I280" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9">
-      <c r="A281" t="s">
-        <v>785</v>
-      </c>
-      <c r="B281" t="s">
+      <c r="G281" t="s">
+        <v>710</v>
+      </c>
+      <c r="H281" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" t="s">
+        <v>349</v>
+      </c>
+      <c r="B282" t="s">
         <v>808</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C282" t="s">
         <v>808</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D282" t="s">
         <v>808</v>
       </c>
-      <c r="E281" t="s">
+      <c r="E282" t="s">
         <v>808</v>
       </c>
-      <c r="I281" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9">
-      <c r="A282" t="s">
-        <v>785</v>
-      </c>
-      <c r="B282" t="s">
+      <c r="G282" t="s">
+        <v>711</v>
+      </c>
+      <c r="H282" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" t="s">
+        <v>349</v>
+      </c>
+      <c r="B283" t="s">
         <v>809</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C283" t="s">
         <v>809</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D283" t="s">
         <v>809</v>
       </c>
-      <c r="E282" t="s">
+      <c r="E283" t="s">
         <v>809</v>
       </c>
-      <c r="I282" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9">
-      <c r="A283" t="s">
-        <v>785</v>
-      </c>
-      <c r="B283" t="s">
+      <c r="G283" t="s">
+        <v>708</v>
+      </c>
+      <c r="H283" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" t="s">
+        <v>349</v>
+      </c>
+      <c r="B284" t="s">
         <v>810</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C284" t="s">
         <v>810</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D284" t="s">
         <v>810</v>
       </c>
-      <c r="E283" t="s">
+      <c r="E284" t="s">
         <v>810</v>
       </c>
-      <c r="I283" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9">
-      <c r="A284" t="s">
-        <v>785</v>
-      </c>
-      <c r="B284" t="s">
+      <c r="G284" t="s">
+        <v>707</v>
+      </c>
+      <c r="H284" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" t="s">
+        <v>349</v>
+      </c>
+      <c r="B285" t="s">
         <v>811</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C285" t="s">
         <v>811</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D285" t="s">
         <v>811</v>
       </c>
-      <c r="E284" t="s">
+      <c r="E285" t="s">
         <v>811</v>
       </c>
-      <c r="I284" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9">
-      <c r="A285" t="s">
-        <v>785</v>
-      </c>
-      <c r="B285" t="s">
+      <c r="G285" t="s">
+        <v>707</v>
+      </c>
+      <c r="H285" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" t="s">
+        <v>349</v>
+      </c>
+      <c r="B286" t="s">
         <v>812</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C286" t="s">
         <v>812</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D286" t="s">
         <v>812</v>
       </c>
-      <c r="E285" t="s">
+      <c r="E286" t="s">
         <v>812</v>
       </c>
-      <c r="I285" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9">
-      <c r="A286" t="s">
-        <v>785</v>
-      </c>
-      <c r="B286" t="s">
-        <v>813</v>
-      </c>
-      <c r="C286" t="s">
-        <v>813</v>
-      </c>
-      <c r="D286" t="s">
-        <v>813</v>
-      </c>
-      <c r="E286" t="s">
-        <v>813</v>
-      </c>
-      <c r="I286" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9">
-      <c r="A287" t="s">
-        <v>785</v>
-      </c>
-      <c r="B287" t="s">
-        <v>814</v>
-      </c>
-      <c r="C287" t="s">
-        <v>814</v>
-      </c>
-      <c r="D287" t="s">
-        <v>814</v>
-      </c>
-      <c r="E287" t="s">
-        <v>814</v>
-      </c>
-      <c r="I287" t="s">
-        <v>744</v>
+      <c r="G286" t="s">
+        <v>710</v>
+      </c>
+      <c r="H286" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="288" spans="1:9">
       <c r="A288" t="s">
-        <v>785</v>
+        <v>813</v>
       </c>
       <c r="B288" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C288" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D288" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E288" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I288" t="s">
-        <v>745</v>
+        <v>792</v>
       </c>
     </row>
     <row r="289" spans="1:9">
       <c r="A289" t="s">
-        <v>785</v>
+        <v>813</v>
       </c>
       <c r="B289" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C289" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D289" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E289" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I289" t="s">
-        <v>747</v>
+        <v>794</v>
       </c>
     </row>
     <row r="290" spans="1:9">
       <c r="A290" t="s">
-        <v>785</v>
+        <v>813</v>
       </c>
       <c r="B290" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C290" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D290" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E290" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I290" t="s">
-        <v>752</v>
+        <v>804</v>
       </c>
     </row>
     <row r="291" spans="1:9">
       <c r="A291" t="s">
-        <v>785</v>
+        <v>813</v>
       </c>
       <c r="B291" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C291" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D291" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E291" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I291" t="s">
-        <v>753</v>
+        <v>793</v>
       </c>
     </row>
     <row r="292" spans="1:9">
       <c r="A292" t="s">
-        <v>785</v>
+        <v>813</v>
       </c>
       <c r="B292" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C292" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D292" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E292" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I292" t="s">
-        <v>738</v>
+        <v>789</v>
       </c>
     </row>
     <row r="293" spans="1:9">
       <c r="A293" t="s">
-        <v>785</v>
+        <v>813</v>
       </c>
       <c r="B293" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C293" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D293" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E293" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I293" t="s">
-        <v>740</v>
+        <v>797</v>
       </c>
     </row>
     <row r="294" spans="1:9">
       <c r="A294" t="s">
-        <v>785</v>
+        <v>813</v>
       </c>
       <c r="B294" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C294" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D294" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E294" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I294" t="s">
-        <v>754</v>
+        <v>790</v>
       </c>
     </row>
     <row r="295" spans="1:9">
       <c r="A295" t="s">
-        <v>785</v>
+        <v>813</v>
       </c>
       <c r="B295" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C295" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D295" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E295" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I295" t="s">
-        <v>742</v>
+        <v>811</v>
       </c>
     </row>
     <row r="296" spans="1:9">
       <c r="A296" t="s">
-        <v>785</v>
+        <v>813</v>
       </c>
       <c r="B296" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C296" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D296" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E296" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I296" t="s">
-        <v>756</v>
+        <v>810</v>
       </c>
     </row>
     <row r="297" spans="1:9">
       <c r="A297" t="s">
-        <v>785</v>
+        <v>813</v>
       </c>
       <c r="B297" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C297" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D297" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E297" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I297" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
     </row>
     <row r="298" spans="1:9">
       <c r="A298" t="s">
-        <v>785</v>
+        <v>813</v>
       </c>
       <c r="B298" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C298" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D298" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E298" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I298" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
     </row>
     <row r="299" spans="1:9">
       <c r="A299" t="s">
-        <v>785</v>
+        <v>813</v>
       </c>
       <c r="B299" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C299" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D299" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E299" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I299" t="s">
-        <v>761</v>
+        <v>809</v>
       </c>
     </row>
     <row r="300" spans="1:9">
       <c r="A300" t="s">
-        <v>785</v>
+        <v>813</v>
       </c>
       <c r="B300" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C300" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D300" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E300" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I300" t="s">
-        <v>762</v>
+        <v>799</v>
       </c>
     </row>
     <row r="301" spans="1:9">
       <c r="A301" t="s">
-        <v>785</v>
+        <v>813</v>
       </c>
       <c r="B301" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C301" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D301" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E301" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I301" t="s">
-        <v>760</v>
+        <v>798</v>
       </c>
     </row>
     <row r="302" spans="1:9">
       <c r="A302" t="s">
-        <v>785</v>
+        <v>813</v>
       </c>
       <c r="B302" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C302" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D302" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E302" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I302" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
     </row>
     <row r="303" spans="1:9">
       <c r="A303" t="s">
-        <v>785</v>
+        <v>813</v>
       </c>
       <c r="B303" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C303" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D303" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E303" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I303" t="s">
-        <v>767</v>
+        <v>742</v>
       </c>
     </row>
     <row r="304" spans="1:9">
       <c r="A304" t="s">
-        <v>785</v>
+        <v>813</v>
       </c>
       <c r="B304" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C304" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D304" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E304" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I304" t="s">
-        <v>741</v>
+        <v>807</v>
       </c>
     </row>
     <row r="305" spans="1:9">
       <c r="A305" t="s">
-        <v>785</v>
+        <v>813</v>
       </c>
       <c r="B305" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C305" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D305" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E305" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I305" t="s">
         <v>765</v>
@@ -10255,22 +10476,1082 @@
     </row>
     <row r="306" spans="1:9">
       <c r="A306" t="s">
+        <v>813</v>
+      </c>
+      <c r="B306" t="s">
+        <v>832</v>
+      </c>
+      <c r="C306" t="s">
+        <v>832</v>
+      </c>
+      <c r="D306" t="s">
+        <v>832</v>
+      </c>
+      <c r="E306" t="s">
+        <v>832</v>
+      </c>
+      <c r="I306" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
+      <c r="A307" t="s">
+        <v>813</v>
+      </c>
+      <c r="B307" t="s">
+        <v>833</v>
+      </c>
+      <c r="C307" t="s">
+        <v>833</v>
+      </c>
+      <c r="D307" t="s">
+        <v>833</v>
+      </c>
+      <c r="E307" t="s">
+        <v>833</v>
+      </c>
+      <c r="I307" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
+      <c r="A308" t="s">
+        <v>813</v>
+      </c>
+      <c r="B308" t="s">
+        <v>834</v>
+      </c>
+      <c r="C308" t="s">
+        <v>834</v>
+      </c>
+      <c r="D308" t="s">
+        <v>834</v>
+      </c>
+      <c r="E308" t="s">
+        <v>834</v>
+      </c>
+      <c r="I308" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
+      <c r="A309" t="s">
+        <v>813</v>
+      </c>
+      <c r="B309" t="s">
+        <v>835</v>
+      </c>
+      <c r="C309" t="s">
+        <v>835</v>
+      </c>
+      <c r="D309" t="s">
+        <v>835</v>
+      </c>
+      <c r="E309" t="s">
+        <v>835</v>
+      </c>
+      <c r="I309" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
+      <c r="A310" t="s">
+        <v>813</v>
+      </c>
+      <c r="B310" t="s">
+        <v>836</v>
+      </c>
+      <c r="C310" t="s">
+        <v>836</v>
+      </c>
+      <c r="D310" t="s">
+        <v>836</v>
+      </c>
+      <c r="E310" t="s">
+        <v>836</v>
+      </c>
+      <c r="I310" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
+      <c r="A311" t="s">
+        <v>813</v>
+      </c>
+      <c r="B311" t="s">
+        <v>837</v>
+      </c>
+      <c r="C311" t="s">
+        <v>837</v>
+      </c>
+      <c r="D311" t="s">
+        <v>837</v>
+      </c>
+      <c r="E311" t="s">
+        <v>837</v>
+      </c>
+      <c r="I311" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
+      <c r="A312" t="s">
+        <v>813</v>
+      </c>
+      <c r="B312" t="s">
+        <v>838</v>
+      </c>
+      <c r="C312" t="s">
+        <v>838</v>
+      </c>
+      <c r="D312" t="s">
+        <v>838</v>
+      </c>
+      <c r="E312" t="s">
+        <v>838</v>
+      </c>
+      <c r="I312" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
+      <c r="A313" t="s">
+        <v>813</v>
+      </c>
+      <c r="B313" t="s">
+        <v>839</v>
+      </c>
+      <c r="C313" t="s">
+        <v>839</v>
+      </c>
+      <c r="D313" t="s">
+        <v>839</v>
+      </c>
+      <c r="E313" t="s">
+        <v>839</v>
+      </c>
+      <c r="I313" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
+      <c r="A314" t="s">
+        <v>813</v>
+      </c>
+      <c r="B314" t="s">
+        <v>840</v>
+      </c>
+      <c r="C314" t="s">
+        <v>840</v>
+      </c>
+      <c r="D314" t="s">
+        <v>840</v>
+      </c>
+      <c r="E314" t="s">
+        <v>840</v>
+      </c>
+      <c r="I314" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
+      <c r="A315" t="s">
+        <v>813</v>
+      </c>
+      <c r="B315" t="s">
+        <v>841</v>
+      </c>
+      <c r="C315" t="s">
+        <v>841</v>
+      </c>
+      <c r="D315" t="s">
+        <v>841</v>
+      </c>
+      <c r="E315" t="s">
+        <v>841</v>
+      </c>
+      <c r="I315" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
+      <c r="A316" t="s">
+        <v>813</v>
+      </c>
+      <c r="B316" t="s">
+        <v>842</v>
+      </c>
+      <c r="C316" t="s">
+        <v>842</v>
+      </c>
+      <c r="D316" t="s">
+        <v>842</v>
+      </c>
+      <c r="E316" t="s">
+        <v>842</v>
+      </c>
+      <c r="I316" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
+      <c r="A317" t="s">
+        <v>813</v>
+      </c>
+      <c r="B317" t="s">
+        <v>843</v>
+      </c>
+      <c r="C317" t="s">
+        <v>843</v>
+      </c>
+      <c r="D317" t="s">
+        <v>843</v>
+      </c>
+      <c r="E317" t="s">
+        <v>843</v>
+      </c>
+      <c r="I317" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
+      <c r="A318" t="s">
+        <v>813</v>
+      </c>
+      <c r="B318" t="s">
+        <v>844</v>
+      </c>
+      <c r="C318" t="s">
+        <v>844</v>
+      </c>
+      <c r="D318" t="s">
+        <v>844</v>
+      </c>
+      <c r="E318" t="s">
+        <v>844</v>
+      </c>
+      <c r="I318" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
+      <c r="A319" t="s">
+        <v>813</v>
+      </c>
+      <c r="B319" t="s">
+        <v>845</v>
+      </c>
+      <c r="C319" t="s">
+        <v>845</v>
+      </c>
+      <c r="D319" t="s">
+        <v>845</v>
+      </c>
+      <c r="E319" t="s">
+        <v>845</v>
+      </c>
+      <c r="I319" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
+      <c r="A320" t="s">
+        <v>813</v>
+      </c>
+      <c r="B320" t="s">
+        <v>846</v>
+      </c>
+      <c r="C320" t="s">
+        <v>846</v>
+      </c>
+      <c r="D320" t="s">
+        <v>846</v>
+      </c>
+      <c r="E320" t="s">
+        <v>846</v>
+      </c>
+      <c r="I320" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
+      <c r="A321" t="s">
+        <v>813</v>
+      </c>
+      <c r="B321" t="s">
+        <v>847</v>
+      </c>
+      <c r="C321" t="s">
+        <v>847</v>
+      </c>
+      <c r="D321" t="s">
+        <v>847</v>
+      </c>
+      <c r="E321" t="s">
+        <v>847</v>
+      </c>
+      <c r="I321" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
+      <c r="A322" t="s">
+        <v>813</v>
+      </c>
+      <c r="B322" t="s">
+        <v>848</v>
+      </c>
+      <c r="C322" t="s">
+        <v>848</v>
+      </c>
+      <c r="D322" t="s">
+        <v>848</v>
+      </c>
+      <c r="E322" t="s">
+        <v>848</v>
+      </c>
+      <c r="I322" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="A323" t="s">
+        <v>813</v>
+      </c>
+      <c r="B323" t="s">
+        <v>849</v>
+      </c>
+      <c r="C323" t="s">
+        <v>849</v>
+      </c>
+      <c r="D323" t="s">
+        <v>849</v>
+      </c>
+      <c r="E323" t="s">
+        <v>849</v>
+      </c>
+      <c r="I323" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
+      <c r="A324" t="s">
+        <v>813</v>
+      </c>
+      <c r="B324" t="s">
+        <v>850</v>
+      </c>
+      <c r="C324" t="s">
+        <v>850</v>
+      </c>
+      <c r="D324" t="s">
+        <v>850</v>
+      </c>
+      <c r="E324" t="s">
+        <v>850</v>
+      </c>
+      <c r="I324" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
+      <c r="A325" t="s">
+        <v>813</v>
+      </c>
+      <c r="B325" t="s">
+        <v>851</v>
+      </c>
+      <c r="C325" t="s">
+        <v>851</v>
+      </c>
+      <c r="D325" t="s">
+        <v>851</v>
+      </c>
+      <c r="E325" t="s">
+        <v>851</v>
+      </c>
+      <c r="I325" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
+      <c r="A326" t="s">
+        <v>813</v>
+      </c>
+      <c r="B326" t="s">
+        <v>852</v>
+      </c>
+      <c r="C326" t="s">
+        <v>852</v>
+      </c>
+      <c r="D326" t="s">
+        <v>852</v>
+      </c>
+      <c r="E326" t="s">
+        <v>852</v>
+      </c>
+      <c r="I326" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
+      <c r="A327" t="s">
+        <v>813</v>
+      </c>
+      <c r="B327" t="s">
+        <v>853</v>
+      </c>
+      <c r="C327" t="s">
+        <v>853</v>
+      </c>
+      <c r="D327" t="s">
+        <v>853</v>
+      </c>
+      <c r="E327" t="s">
+        <v>853</v>
+      </c>
+      <c r="I327" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
+      <c r="A328" t="s">
+        <v>813</v>
+      </c>
+      <c r="B328" t="s">
+        <v>854</v>
+      </c>
+      <c r="C328" t="s">
+        <v>854</v>
+      </c>
+      <c r="D328" t="s">
+        <v>854</v>
+      </c>
+      <c r="E328" t="s">
+        <v>854</v>
+      </c>
+      <c r="I328" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="A329" t="s">
+        <v>813</v>
+      </c>
+      <c r="B329" t="s">
+        <v>855</v>
+      </c>
+      <c r="C329" t="s">
+        <v>855</v>
+      </c>
+      <c r="D329" t="s">
+        <v>855</v>
+      </c>
+      <c r="E329" t="s">
+        <v>855</v>
+      </c>
+      <c r="I329" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="A330" t="s">
+        <v>813</v>
+      </c>
+      <c r="B330" t="s">
+        <v>856</v>
+      </c>
+      <c r="C330" t="s">
+        <v>856</v>
+      </c>
+      <c r="D330" t="s">
+        <v>856</v>
+      </c>
+      <c r="E330" t="s">
+        <v>856</v>
+      </c>
+      <c r="I330" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="A331" t="s">
+        <v>813</v>
+      </c>
+      <c r="B331" t="s">
+        <v>857</v>
+      </c>
+      <c r="C331" t="s">
+        <v>857</v>
+      </c>
+      <c r="D331" t="s">
+        <v>857</v>
+      </c>
+      <c r="E331" t="s">
+        <v>857</v>
+      </c>
+      <c r="I331" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
+      <c r="A332" t="s">
+        <v>813</v>
+      </c>
+      <c r="B332" t="s">
+        <v>858</v>
+      </c>
+      <c r="C332" t="s">
+        <v>858</v>
+      </c>
+      <c r="D332" t="s">
+        <v>858</v>
+      </c>
+      <c r="E332" t="s">
+        <v>858</v>
+      </c>
+      <c r="I332" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" t="s">
+        <v>813</v>
+      </c>
+      <c r="B333" t="s">
+        <v>859</v>
+      </c>
+      <c r="C333" t="s">
+        <v>859</v>
+      </c>
+      <c r="D333" t="s">
+        <v>859</v>
+      </c>
+      <c r="E333" t="s">
+        <v>859</v>
+      </c>
+      <c r="I333" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" t="s">
+        <v>813</v>
+      </c>
+      <c r="B334" t="s">
+        <v>860</v>
+      </c>
+      <c r="C334" t="s">
+        <v>860</v>
+      </c>
+      <c r="D334" t="s">
+        <v>860</v>
+      </c>
+      <c r="E334" t="s">
+        <v>860</v>
+      </c>
+      <c r="I334" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" t="s">
+        <v>813</v>
+      </c>
+      <c r="B335" t="s">
+        <v>861</v>
+      </c>
+      <c r="C335" t="s">
+        <v>861</v>
+      </c>
+      <c r="D335" t="s">
+        <v>861</v>
+      </c>
+      <c r="E335" t="s">
+        <v>861</v>
+      </c>
+      <c r="I335" t="s">
         <v>785</v>
       </c>
-      <c r="B306" t="s">
-        <v>833</v>
-      </c>
-      <c r="C306" t="s">
-        <v>833</v>
-      </c>
-      <c r="D306" t="s">
-        <v>833</v>
-      </c>
-      <c r="E306" t="s">
-        <v>833</v>
-      </c>
-      <c r="I306" t="s">
-        <v>766</v>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" t="s">
+        <v>813</v>
+      </c>
+      <c r="B336" t="s">
+        <v>862</v>
+      </c>
+      <c r="C336" t="s">
+        <v>862</v>
+      </c>
+      <c r="D336" t="s">
+        <v>862</v>
+      </c>
+      <c r="E336" t="s">
+        <v>862</v>
+      </c>
+      <c r="I336" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" t="s">
+        <v>813</v>
+      </c>
+      <c r="B337" t="s">
+        <v>863</v>
+      </c>
+      <c r="C337" t="s">
+        <v>863</v>
+      </c>
+      <c r="D337" t="s">
+        <v>863</v>
+      </c>
+      <c r="E337" t="s">
+        <v>863</v>
+      </c>
+      <c r="I337" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" t="s">
+        <v>813</v>
+      </c>
+      <c r="B338" t="s">
+        <v>864</v>
+      </c>
+      <c r="C338" t="s">
+        <v>864</v>
+      </c>
+      <c r="D338" t="s">
+        <v>864</v>
+      </c>
+      <c r="E338" t="s">
+        <v>864</v>
+      </c>
+      <c r="I338" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" t="s">
+        <v>813</v>
+      </c>
+      <c r="B339" t="s">
+        <v>865</v>
+      </c>
+      <c r="C339" t="s">
+        <v>865</v>
+      </c>
+      <c r="D339" t="s">
+        <v>865</v>
+      </c>
+      <c r="E339" t="s">
+        <v>865</v>
+      </c>
+      <c r="I339" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340" t="s">
+        <v>813</v>
+      </c>
+      <c r="B340" t="s">
+        <v>866</v>
+      </c>
+      <c r="C340" t="s">
+        <v>866</v>
+      </c>
+      <c r="D340" t="s">
+        <v>866</v>
+      </c>
+      <c r="E340" t="s">
+        <v>866</v>
+      </c>
+      <c r="I340" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="A341" t="s">
+        <v>813</v>
+      </c>
+      <c r="B341" t="s">
+        <v>867</v>
+      </c>
+      <c r="C341" t="s">
+        <v>867</v>
+      </c>
+      <c r="D341" t="s">
+        <v>867</v>
+      </c>
+      <c r="E341" t="s">
+        <v>867</v>
+      </c>
+      <c r="I341" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" t="s">
+        <v>813</v>
+      </c>
+      <c r="B342" t="s">
+        <v>868</v>
+      </c>
+      <c r="C342" t="s">
+        <v>868</v>
+      </c>
+      <c r="D342" t="s">
+        <v>868</v>
+      </c>
+      <c r="E342" t="s">
+        <v>868</v>
+      </c>
+      <c r="I342" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343" t="s">
+        <v>813</v>
+      </c>
+      <c r="B343" t="s">
+        <v>869</v>
+      </c>
+      <c r="C343" t="s">
+        <v>869</v>
+      </c>
+      <c r="D343" t="s">
+        <v>869</v>
+      </c>
+      <c r="E343" t="s">
+        <v>869</v>
+      </c>
+      <c r="I343" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" t="s">
+        <v>813</v>
+      </c>
+      <c r="B344" t="s">
+        <v>870</v>
+      </c>
+      <c r="C344" t="s">
+        <v>870</v>
+      </c>
+      <c r="D344" t="s">
+        <v>870</v>
+      </c>
+      <c r="E344" t="s">
+        <v>870</v>
+      </c>
+      <c r="I344" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" t="s">
+        <v>813</v>
+      </c>
+      <c r="B345" t="s">
+        <v>871</v>
+      </c>
+      <c r="C345" t="s">
+        <v>871</v>
+      </c>
+      <c r="D345" t="s">
+        <v>871</v>
+      </c>
+      <c r="E345" t="s">
+        <v>871</v>
+      </c>
+      <c r="I345" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346" t="s">
+        <v>813</v>
+      </c>
+      <c r="B346" t="s">
+        <v>872</v>
+      </c>
+      <c r="C346" t="s">
+        <v>872</v>
+      </c>
+      <c r="D346" t="s">
+        <v>872</v>
+      </c>
+      <c r="E346" t="s">
+        <v>872</v>
+      </c>
+      <c r="I346" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347" t="s">
+        <v>813</v>
+      </c>
+      <c r="B347" t="s">
+        <v>873</v>
+      </c>
+      <c r="C347" t="s">
+        <v>873</v>
+      </c>
+      <c r="D347" t="s">
+        <v>873</v>
+      </c>
+      <c r="E347" t="s">
+        <v>873</v>
+      </c>
+      <c r="I347" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" t="s">
+        <v>813</v>
+      </c>
+      <c r="B348" t="s">
+        <v>874</v>
+      </c>
+      <c r="C348" t="s">
+        <v>874</v>
+      </c>
+      <c r="D348" t="s">
+        <v>874</v>
+      </c>
+      <c r="E348" t="s">
+        <v>874</v>
+      </c>
+      <c r="I348" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" t="s">
+        <v>813</v>
+      </c>
+      <c r="B349" t="s">
+        <v>875</v>
+      </c>
+      <c r="C349" t="s">
+        <v>875</v>
+      </c>
+      <c r="D349" t="s">
+        <v>875</v>
+      </c>
+      <c r="E349" t="s">
+        <v>875</v>
+      </c>
+      <c r="I349" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" t="s">
+        <v>813</v>
+      </c>
+      <c r="B350" t="s">
+        <v>876</v>
+      </c>
+      <c r="C350" t="s">
+        <v>876</v>
+      </c>
+      <c r="D350" t="s">
+        <v>876</v>
+      </c>
+      <c r="E350" t="s">
+        <v>876</v>
+      </c>
+      <c r="I350" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" t="s">
+        <v>813</v>
+      </c>
+      <c r="B351" t="s">
+        <v>877</v>
+      </c>
+      <c r="C351" t="s">
+        <v>877</v>
+      </c>
+      <c r="D351" t="s">
+        <v>877</v>
+      </c>
+      <c r="E351" t="s">
+        <v>877</v>
+      </c>
+      <c r="I351" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" t="s">
+        <v>813</v>
+      </c>
+      <c r="B352" t="s">
+        <v>878</v>
+      </c>
+      <c r="C352" t="s">
+        <v>878</v>
+      </c>
+      <c r="D352" t="s">
+        <v>878</v>
+      </c>
+      <c r="E352" t="s">
+        <v>878</v>
+      </c>
+      <c r="I352" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" t="s">
+        <v>813</v>
+      </c>
+      <c r="B353" t="s">
+        <v>879</v>
+      </c>
+      <c r="C353" t="s">
+        <v>879</v>
+      </c>
+      <c r="D353" t="s">
+        <v>879</v>
+      </c>
+      <c r="E353" t="s">
+        <v>879</v>
+      </c>
+      <c r="I353" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" t="s">
+        <v>813</v>
+      </c>
+      <c r="B354" t="s">
+        <v>880</v>
+      </c>
+      <c r="C354" t="s">
+        <v>880</v>
+      </c>
+      <c r="D354" t="s">
+        <v>880</v>
+      </c>
+      <c r="E354" t="s">
+        <v>880</v>
+      </c>
+      <c r="I354" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355" t="s">
+        <v>813</v>
+      </c>
+      <c r="B355" t="s">
+        <v>881</v>
+      </c>
+      <c r="C355" t="s">
+        <v>881</v>
+      </c>
+      <c r="D355" t="s">
+        <v>881</v>
+      </c>
+      <c r="E355" t="s">
+        <v>881</v>
+      </c>
+      <c r="I355" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" t="s">
+        <v>813</v>
+      </c>
+      <c r="B356" t="s">
+        <v>882</v>
+      </c>
+      <c r="C356" t="s">
+        <v>882</v>
+      </c>
+      <c r="D356" t="s">
+        <v>882</v>
+      </c>
+      <c r="E356" t="s">
+        <v>882</v>
+      </c>
+      <c r="I356" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="A357" t="s">
+        <v>813</v>
+      </c>
+      <c r="B357" t="s">
+        <v>883</v>
+      </c>
+      <c r="C357" t="s">
+        <v>883</v>
+      </c>
+      <c r="D357" t="s">
+        <v>883</v>
+      </c>
+      <c r="E357" t="s">
+        <v>883</v>
+      </c>
+      <c r="I357" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="A358" t="s">
+        <v>813</v>
+      </c>
+      <c r="B358" t="s">
+        <v>884</v>
+      </c>
+      <c r="C358" t="s">
+        <v>884</v>
+      </c>
+      <c r="D358" t="s">
+        <v>884</v>
+      </c>
+      <c r="E358" t="s">
+        <v>884</v>
+      </c>
+      <c r="I358" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" t="s">
+        <v>813</v>
+      </c>
+      <c r="B359" t="s">
+        <v>885</v>
+      </c>
+      <c r="C359" t="s">
+        <v>885</v>
+      </c>
+      <c r="D359" t="s">
+        <v>885</v>
+      </c>
+      <c r="E359" t="s">
+        <v>885</v>
+      </c>
+      <c r="I359" t="s">
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -10285,8 +11566,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -10298,27 +11579,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>834</v>
+        <v>886</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>835</v>
+        <v>887</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>836</v>
+        <v>888</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>837</v>
+        <v>889</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>838</v>
+        <v>890</v>
       </c>
       <c r="B2" t="s">
-        <v>839</v>
+        <v>891</v>
       </c>
       <c r="C2" t="s">
-        <v>840</v>
+        <v>892</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
